--- a/FInalTerm/PandasPractice/content/frequency_counts.xlsx
+++ b/FInalTerm/PandasPractice/content/frequency_counts.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="temp" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="feels_like" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="pressure" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="humidity" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="wind_speed" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="wind_deg" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="clouds_all" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="temp" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="feels_like" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="pressure" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="humidity" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="wind_speed" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="wind_deg" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="clouds_all" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
